--- a/1-up-and-running-from-spreadsheets-to-python/rows-and-columns.xlsx
+++ b/1-up-and-running-from-spreadsheets-to-python/rows-and-columns.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Plop</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>Fizz</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -351,49 +354,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
